--- a/python-exercises/FormExcel/datos.xlsx
+++ b/python-exercises/FormExcel/datos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,26 +455,26 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>josferzul@gmail.com</t>
+          <t>asd@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3184978244</v>
+        <v>21312</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Calle4#78-98</t>
+          <t>cr12-231</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alejandra</t>
+          <t>Mayu</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -482,61 +482,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>maria.serrato@gmail.com</t>
+          <t>male@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3145784415</v>
+        <v>3187456214</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cr91#26-47</t>
+          <t>Cr91#26-48</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ajz@gmail.om</t>
+          <t>qwe@gmail.com</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3014805010</v>
+        <v>1235121</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cr24#127-84</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fernanda</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>44</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>fernan@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3104328808</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cr7#63-74</t>
+          <t>Curiti</t>
         </is>
       </c>
     </row>
